--- a/Membrane Analysis/ObsVarDef.xlsx
+++ b/Membrane Analysis/ObsVarDef.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel0921\OneDrive - IVL Svenska Miljöinstitutet AB\DigiDrick II\VIVAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel0921\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="14_{B558D27A-8559-4CE5-9A59-48C7BBBC8461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB38D9CB-F0D6-4B2E-9C9B-9750BF12280C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3F08F-50C1-47F4-BC64-A6DB26EE5640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VarDef" sheetId="1" r:id="rId1"/>
-    <sheet name="ObsDef" sheetId="2" r:id="rId2"/>
-    <sheet name="Frågor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,42 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Joel Wanemark</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Joel Wanemark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DSAllPP-170130.usp</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="182">
   <si>
     <t>VarNum</t>
   </si>
@@ -367,120 +331,6 @@
   </si>
   <si>
     <t>VAT_UTBYTE</t>
-  </si>
-  <si>
-    <t>Glidande median +- gränsvärde</t>
-  </si>
-  <si>
-    <t>Leverar de bortfall?</t>
-  </si>
-  <si>
-    <t>Ta en signal och ta allt som ligger ovanför</t>
-  </si>
-  <si>
-    <t>Hur mycket går man tillbaka, 1-2 före och 1-2 efter, och plotta trender</t>
-  </si>
-  <si>
-    <t>Vad händer i perioden då perm går uppåt? vad gör de annorlunda</t>
-  </si>
-  <si>
-    <t>prediktera fallet i perm</t>
-  </si>
-  <si>
-    <t>prediktera ökningen i perm vid ceb</t>
-  </si>
-  <si>
-    <t>Predda ut uv på CEB-nivå</t>
-  </si>
-  <si>
-    <t>CEB-längden, vad bestämmer den?</t>
-  </si>
-  <si>
-    <t>Ratio backspolning/produktion?</t>
-  </si>
-  <si>
-    <t>derivatan inom cykler (20min)</t>
-  </si>
-  <si>
-    <t>derivatan mellan CEB (2 dygn)</t>
-  </si>
-  <si>
-    <t>Botten innan skölj och efter, som funktion av tiden efter CEB</t>
-  </si>
-  <si>
-    <t>Vart man går efter CEB är funktion av tid efter membranbyte</t>
-  </si>
-  <si>
-    <t>Stora språnget i perm, membranbyte?</t>
-  </si>
-  <si>
-    <t>1. Vilken typ av tryck är TG, dvs vad är det den mäter?</t>
-  </si>
-  <si>
-    <t>Tryck över membranet vid backspolning</t>
-  </si>
-  <si>
-    <t>2. Hur samplas de signaler som heter *_LAST_*? Ibland tycks samplingspunkterna sammanfalla med flödes/perm-fall, dvs backwash, men ibland inte.</t>
-  </si>
-  <si>
-    <t>Tyvärr har jag ingen kunskap om dataloggning i detta fall, men jag förmodar att loggning sker oavsett backspolningar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Är de enda invatten-parametrarna ni mäter UV och färg? </t>
-  </si>
-  <si>
-    <t>Nej, vi mäter även turbiditet och beräknat TOC/DOC samt SUVA.</t>
-  </si>
-  <si>
-    <t>4. Loggar ni när ni gör en CEB?</t>
-  </si>
-  <si>
-    <t>Osäkert om detta, jag vet att det används olika koder för olika programsekvenser. Efterforskningar krävs från min sida.</t>
-  </si>
-  <si>
-    <t>Startas CEB automatiskt?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ja, efter förinställt antal hydrauliska backspolningar eller vid överskridande av börvärden för TMP.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Är permeabiliteten temperaturkorrigerad? </t>
-  </si>
-  <si>
-    <t>Svaret: Ja.</t>
-  </si>
-  <si>
-    <t>eller 0</t>
-  </si>
-  <si>
-    <t>Speciella perioder?</t>
-  </si>
-  <si>
-    <t>TMP-värde, få eller räkna ut</t>
-  </si>
-  <si>
-    <t>Plotta derivatan över tid</t>
-  </si>
-  <si>
-    <t>Biplot för accuv254</t>
-  </si>
-  <si>
-    <t>Plotta ceb restoration per filter över perm</t>
-  </si>
-  <si>
-    <t>Annan data som signalerar CEB?</t>
   </si>
   <si>
     <t>V-VV-1051KVG-UF-FM6801_CALC</t>
@@ -730,11 +580,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm;@"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,19 +595,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -790,26 +623,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="29">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -947,18 +767,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -973,35 +781,33 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1015,44 +821,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="20% - Dekorfärg1" xfId="1" xr:uid="{8E564A49-013E-4360-8688-13C244303A96}"/>
@@ -1414,68 +1191,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="6" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="11" max="11" width="29.81640625" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="9"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B2">
@@ -1487,107 +1257,89 @@
       <c r="E2">
         <v>70</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="8">
         <v>20</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="8">
         <v>70</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="8">
         <v>20</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="8">
         <v>60</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="8">
         <v>20</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="8">
         <v>60</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="K6" s="18" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="K6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="K7" s="18" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="K7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B8">
@@ -1599,105 +1351,97 @@
       <c r="E8">
         <v>500</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="8">
         <v>500</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="8">
         <v>500</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="8">
         <v>500</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="8">
         <v>500</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="8">
         <v>500</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B14">
@@ -1706,88 +1450,82 @@
       <c r="E14">
         <v>50</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="8">
         <v>50</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="8">
         <v>50</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="8">
         <v>50</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="8">
         <v>50</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="8">
         <v>50</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B20">
@@ -1796,25 +1534,23 @@
       <c r="E20">
         <v>-0.01</v>
       </c>
-      <c r="K20" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="K20" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="K21" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B22">
@@ -1823,13 +1559,12 @@
       <c r="D22">
         <v>0.2</v>
       </c>
-      <c r="K22" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+      <c r="K22" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B23">
@@ -1838,225 +1573,213 @@
       <c r="D23">
         <v>220</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+      <c r="K23" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="8">
         <v>-0.01</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="K24" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="K25" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="D25" s="8"/>
+      <c r="K25" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="8">
         <v>0.2</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="K26" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="8">
         <v>220</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+      <c r="K27" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
         <v>-0.01</v>
       </c>
-      <c r="K28" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+      <c r="K28" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="K29" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="K29" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="8">
         <v>0.2</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="K30" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="E30" s="8"/>
+      <c r="K30" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="8">
         <v>220</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="K31" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+      <c r="E31" s="8"/>
+      <c r="K31" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8">
         <v>-0.01</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+      <c r="K32" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="K33" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="K33" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="8">
         <v>0.2</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="K34" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
+      <c r="E34" s="8"/>
+      <c r="K34" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="8">
         <v>34</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="8">
         <v>220</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="K35" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="E35" s="8"/>
+      <c r="K35" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="8">
         <v>35</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="8">
         <v>-0.01</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
+      <c r="K36" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="8">
         <v>36</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="8">
         <v>-0.01</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+      <c r="K37" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="8">
         <v>37</v>
       </c>
       <c r="D38">
@@ -2065,15 +1788,15 @@
       <c r="E38">
         <v>30</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="8">
         <v>38</v>
       </c>
       <c r="D39">
@@ -2082,15 +1805,15 @@
       <c r="E39">
         <v>10</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="8">
         <v>39</v>
       </c>
       <c r="D40">
@@ -2099,15 +1822,15 @@
       <c r="E40">
         <v>15</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="8">
         <v>40</v>
       </c>
       <c r="D41">
@@ -2116,15 +1839,15 @@
       <c r="E41">
         <v>80</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="K41" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="8">
         <v>41</v>
       </c>
       <c r="D42">
@@ -2133,15 +1856,15 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="8">
         <v>42</v>
       </c>
       <c r="D43">
@@ -2150,15 +1873,15 @@
       <c r="E43">
         <v>25</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="K43" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="8">
         <v>43</v>
       </c>
       <c r="D44">
@@ -2167,15 +1890,15 @@
       <c r="E44">
         <v>10</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="8">
         <v>44</v>
       </c>
       <c r="D45">
@@ -2184,65 +1907,65 @@
       <c r="E45">
         <v>7</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="8">
         <v>45</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K46" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="8">
         <v>46</v>
       </c>
-      <c r="K47" s="17" t="s">
+      <c r="K47" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="8">
         <v>47</v>
       </c>
       <c r="D48">
         <v>40</v>
       </c>
-      <c r="K48" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="K48" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="8">
         <v>48</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="K49" s="17" t="s">
+      <c r="K49" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="8">
         <v>49</v>
       </c>
       <c r="D50">
@@ -2251,713 +1974,484 @@
       <c r="E50">
         <v>5000</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="8">
         <v>50</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="8">
+        <v>51</v>
+      </c>
+      <c r="K52" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="16">
-        <v>51</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="16">
+        <v>102</v>
+      </c>
+      <c r="B53" s="8">
         <v>52</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+      <c r="K53" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="8">
+        <v>53</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="16">
-        <v>53</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="8">
+        <v>54</v>
+      </c>
+      <c r="K55" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="16">
-        <v>54</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="8">
+        <v>55</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="16">
-        <v>55</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="16">
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="8">
         <v>56</v>
       </c>
-      <c r="K57" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
+      <c r="K57" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="16">
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="8">
         <v>57</v>
       </c>
-      <c r="K58" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
+      <c r="K58" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="16">
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="8">
         <v>58</v>
       </c>
-      <c r="K59" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
+      <c r="K59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="16">
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="8">
         <v>59</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A61" s="15" t="s">
+      <c r="K60" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="16">
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="8">
         <v>60</v>
       </c>
-      <c r="K61" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
+      <c r="K61" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="16">
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="8">
         <v>61</v>
       </c>
-      <c r="K62" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
+      <c r="K62" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="16">
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="8">
         <v>62</v>
       </c>
-      <c r="K63" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
+      <c r="K63" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="16">
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="8">
         <v>63</v>
       </c>
-      <c r="K64" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
+      <c r="K64" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="16">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="8">
         <v>64</v>
       </c>
-      <c r="K65" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K65" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="16">
+        <v>115</v>
+      </c>
+      <c r="B66" s="8">
         <v>65</v>
       </c>
-      <c r="K66" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
+      <c r="K66" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="16">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="8">
         <v>66</v>
       </c>
-      <c r="K67" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
+      <c r="K67" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="16">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="8">
         <v>67</v>
       </c>
-      <c r="K68" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+      <c r="K68" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="16">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="8">
         <v>68</v>
       </c>
-      <c r="K69" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
+      <c r="K69" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="16">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="8">
         <v>69</v>
       </c>
-      <c r="K70" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
+      <c r="K70" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="16">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="8">
         <v>70</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="15" t="s">
+      <c r="K71" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="16">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="8">
         <v>71</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
+      <c r="K72" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="16">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="8">
         <v>72</v>
       </c>
-      <c r="K73" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="15" t="s">
+      <c r="K73" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="8">
+        <v>73</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="8">
+        <v>74</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="8">
+        <v>75</v>
+      </c>
+      <c r="K76" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="16">
-        <v>73</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="15" t="s">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="8">
+        <v>76</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="16">
-        <v>74</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="15" t="s">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="8">
+        <v>77</v>
+      </c>
+      <c r="K78" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="16">
-        <v>75</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="8">
+        <v>78</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="16">
-        <v>76</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="8">
+        <v>79</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="8">
+        <v>80</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="8">
+        <v>81</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="8">
+        <v>82</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="16">
-        <v>77</v>
-      </c>
-      <c r="K78" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="8">
+        <v>83</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B79" s="16">
-        <v>78</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="8">
+        <v>84</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="16">
-        <v>79</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="16">
-        <v>80</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="16">
-        <v>81</v>
-      </c>
-      <c r="K82" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="16">
-        <v>82</v>
-      </c>
-      <c r="K83" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="16">
-        <v>83</v>
-      </c>
-      <c r="K84" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="16">
-        <v>84</v>
-      </c>
-      <c r="K85" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="12"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="12"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="12"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="12"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="12"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="12"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="12"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="12"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="12"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="12"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="12"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="12"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="12"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="12"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="12"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="12"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="12"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABB17F1-4062-4647-9AEF-50A4C343F370}">
-  <dimension ref="A3:H42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="23">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
